--- a/appLab4/output/3D Graph.xlsx
+++ b/appLab4/output/3D Graph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humme\OneDrive\Працоўны стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\System-Analysis-and-Machine-Modeling\appLab4\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54FDD58-FEA2-43F2-BB73-B6FD62C7E0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB86FFCE-5DC4-4763-AEF7-1C4093E9EDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B6343C9-46E0-4D40-9BB0-569312121470}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -225,16 +223,16 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -246,19 +244,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>31.52</c:v>
+                  <c:v>6.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.18</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>6.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.51</c:v>
+                  <c:v>6.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.01</c:v>
+                  <c:v>7.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,16 +299,16 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,6 +700,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1119692799"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -713,6 +712,1119 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7692038495188118E-2"/>
+          <c:y val="0.22726851851851851"/>
+          <c:w val="0.88713429571303593"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABD8-4DCF-8F7D-0BD0AB7A2B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABD8-4DCF-8F7D-0BD0AB7A2B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ABD8-4DCF-8F7D-0BD0AB7A2B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1399642816"/>
+        <c:axId val="1399644256"/>
+        <c:axId val="1391344304"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="1399642816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399644256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399644256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399642816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1391344304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399644256"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -781,6 +1893,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B42F21-3843-6078-DEF3-14F6EAD6F31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1086,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF481C33-718D-4A3F-B284-AADE7DBEB464}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,51 +2267,271 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>31.52</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>15.18</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10.029999999999999</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
       </c>
       <c r="C5" s="1">
-        <v>7.51</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>6.01</v>
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.52</v>
       </c>
     </row>
   </sheetData>
